--- a/Chiba_team/エビデンス.xlsx
+++ b/Chiba_team/エビデンス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace_2022\ict2git\candd2022\Chiba_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379060FE-B2A5-4259-9E39-C0616DC609BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C7E58-4A9B-43DE-809A-449CF8770F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="１、２" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
     <sheet name="4" sheetId="3" r:id="rId3"/>
     <sheet name="5，6" sheetId="4" r:id="rId4"/>
     <sheet name="7" sheetId="5" r:id="rId5"/>
+    <sheet name="7_再" sheetId="6" r:id="rId6"/>
+    <sheet name="18" sheetId="7" r:id="rId7"/>
+    <sheet name="19、20" sheetId="8" r:id="rId8"/>
+    <sheet name="21、22" sheetId="9" r:id="rId9"/>
+    <sheet name="23" sheetId="10" r:id="rId10"/>
+    <sheet name="24、25" sheetId="11" r:id="rId11"/>
+    <sheet name="26、27" sheetId="12" r:id="rId12"/>
+    <sheet name="28、29" sheetId="13" r:id="rId13"/>
+    <sheet name="30、31" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>何も起きず・・・</t>
     <rPh sb="0" eb="1">
@@ -37,6 +46,189 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTC選択、時刻設定</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジコクセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソールにてタイマー起動中であることを確認</t>
+    <rPh sb="11" eb="14">
+      <t>キドウチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー再設定。再設定前のタイマーが中断される</t>
+    <rPh sb="4" eb="7">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>サイセッテイマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定時刻に通知されることを確認</t>
+    <rPh sb="0" eb="4">
+      <t>シテイジコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再通知前の時刻を経過後、通知がでないことを確認</t>
+    <rPh sb="0" eb="4">
+      <t>サイツウチマエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイカゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソールにてタイマーが開始されることを確認</t>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始ボタン押下で再設定前のタイマーを中断</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>サイセッテイマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定時刻経過後</t>
+    <rPh sb="0" eb="6">
+      <t>シテイジコクケイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再設定前の時刻経過後、通知がでないことを確認</t>
+    <rPh sb="0" eb="4">
+      <t>サイセッテイマエ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ジコクケイカゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止ボタン押下後</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー開始</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定時刻経過後、通知が表示されないことを確認</t>
+    <rPh sb="0" eb="7">
+      <t>シテイジコクケイカゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断の通知が2回出るがすべて閉じ、指定時刻まで待つ</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイデ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シテイジコク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,6 +341,735 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF97E36-0D1B-F4C8-D290-0FF0DB4543D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343395</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6728225B-65D6-4B9C-BE81-4D0F3A78A68E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10515600"/>
+          <a:ext cx="5707875" cy="2202371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B97FBE2-D948-F6CF-1C4C-946E64354A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D717B1-196F-797A-6A78-70BC2DD399DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9829800"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36111B3C-88B3-9E26-3EF0-3A2745C003BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19659600"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A82658A-77F9-117C-1F4D-BC9A545D4406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251726C6-484C-7812-6DEB-5915777B54AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213785</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753BE20-5BDB-6099-F795-FF398C09EFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20345400"/>
+          <a:ext cx="4907705" cy="2095682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D092D1-5FC7-8150-C368-2F17F0601D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23088600"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A96D91-E3DF-D334-2C34-5DCF984FE02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C2A4D2-B65C-D902-F479-6EA341FCBF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7891012C-6D33-9FD9-BDFB-26616BE20005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511049</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE7C016-AFB3-0F17-4EFA-E61D055FF892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="5875529" cy="2385267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D30D50-342D-6EAC-A59E-3FF0FBB2A272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13030200"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5332E1A8-690C-B4DF-1BF8-3FE3D6DB8EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23317200"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9D4819-6302-E7B2-C41C-C4E1C8FBEAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33604200"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1521,6 +2442,598 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10744200"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5B8814-4B58-B3DA-C9F9-B5EEEAD9FD43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEEABB8-1720-4293-F593-61F44FD6317C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10744200"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144BD54C-3354-499B-68D5-A87D2E65978C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518670</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>183035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05109A16-40E0-F916-BC11-E071A25DB626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10972800"/>
+          <a:ext cx="5883150" cy="1783235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A5DDD-18C3-CB68-E649-C93572FD9D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFE273B-EBE6-8406-B249-7D837E87D3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA5A144-665A-EF00-CD4C-EEF21647C88C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19888200"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0116CF64-9FE0-95ED-FD60-0E302D4FB882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29946600"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDFC2CE-B23F-0B40-616A-4658CE84B9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53810</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>205936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2A9AFE-B311-4144-3E7D-EB24328D4F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10744200"/>
+          <a:ext cx="5418290" cy="2263336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B653DDA-8A6C-667B-DA04-335E24D13A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13258800"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>625301</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>129710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47A6067-FC7F-2C74-9092-28B0339C1768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24231600"/>
+          <a:ext cx="5319221" cy="1958510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166D9119-E40F-84F0-2F6D-FB2BCC77F90F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26517600"/>
           <a:ext cx="18285714" cy="10285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,6 +3321,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A0D5C2-3C7C-4E74-A9B8-00F44A5D996D}">
+  <dimension ref="A46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A5B8C3-A365-46D9-840C-8C47E7FF17A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADAB5D2-3EC1-4278-92A4-88AF577FE068}">
+  <dimension ref="A1:A101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF79FB82-DB28-42D5-9488-0D4BE3ECC427}">
+  <dimension ref="A44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF484B-28BB-4A5C-B92F-0BED56A9B87F}">
+  <dimension ref="A1:A147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2031C44E-1B8F-4121-AF88-C588CADE58E9}">
   <dimension ref="A1"/>
@@ -1855,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED93B4-C5F5-4B3F-98D4-7B94CFA6F95C}">
   <dimension ref="A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -1869,4 +3506,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048DF555-9133-45FC-BF76-E646B4FE166C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDAD2DB-E743-4EAE-9FF4-FD829AFB8372}">
+  <dimension ref="A48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EC4145-ABCF-465C-A01A-204F46C8A034}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2752C7-4BB9-44DD-9557-8A80C79E0704}">
+  <dimension ref="A1:A116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Chiba_team/エビデンス.xlsx
+++ b/Chiba_team/エビデンス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace_2022\ict2git\candd2022\Chiba_team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itanoLocal\work\mysample\candd2022\Chiba_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C7E58-4A9B-43DE-809A-449CF8770F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706036E3-32F5-4D7E-8D2B-F742217AD073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="１、２" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,20 @@
     <sheet name="5，6" sheetId="4" r:id="rId4"/>
     <sheet name="7" sheetId="5" r:id="rId5"/>
     <sheet name="7_再" sheetId="6" r:id="rId6"/>
-    <sheet name="18" sheetId="7" r:id="rId7"/>
-    <sheet name="19、20" sheetId="8" r:id="rId8"/>
-    <sheet name="21、22" sheetId="9" r:id="rId9"/>
-    <sheet name="23" sheetId="10" r:id="rId10"/>
-    <sheet name="24、25" sheetId="11" r:id="rId11"/>
-    <sheet name="26、27" sheetId="12" r:id="rId12"/>
-    <sheet name="28、29" sheetId="13" r:id="rId13"/>
-    <sheet name="30、31" sheetId="14" r:id="rId14"/>
+    <sheet name="8" sheetId="15" r:id="rId7"/>
+    <sheet name="9,10" sheetId="16" r:id="rId8"/>
+    <sheet name="11,12" sheetId="17" r:id="rId9"/>
+    <sheet name="13" sheetId="18" r:id="rId10"/>
+    <sheet name="14,15" sheetId="19" r:id="rId11"/>
+    <sheet name="16,17" sheetId="20" r:id="rId12"/>
+    <sheet name="18" sheetId="7" r:id="rId13"/>
+    <sheet name="19、20" sheetId="8" r:id="rId14"/>
+    <sheet name="21、22" sheetId="9" r:id="rId15"/>
+    <sheet name="23" sheetId="10" r:id="rId16"/>
+    <sheet name="24、25" sheetId="11" r:id="rId17"/>
+    <sheet name="26、27" sheetId="12" r:id="rId18"/>
+    <sheet name="28、29" sheetId="13" r:id="rId19"/>
+    <sheet name="30、31" sheetId="14" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>何も起きず・・・</t>
     <rPh sb="0" eb="1">
@@ -351,17 +357,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598182</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF97E36-0D1B-F4C8-D290-0FF0DB4543D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6CA369-1522-4BD1-9CCE-960DEF1E21F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,34 +384,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+          <a:ext cx="9183382" cy="5382376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>343395</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>144971</xdr:rowOff>
+      <xdr:colOff>337334</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6728225B-65D6-4B9C-BE81-4D0F3A78A68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C32DF14-5812-42A9-B42B-B41FCB20AF20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -421,8 +427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10515600"/>
-          <a:ext cx="5707875" cy="2202371"/>
+          <a:off x="0" y="5943600"/>
+          <a:ext cx="5620534" cy="1190791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,17 +450,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541024</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B97FBE2-D948-F6CF-1C4C-946E64354A6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403DC270-1630-496C-BC4B-64E153DF4232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -471,78 +477,78 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+          <a:ext cx="9126224" cy="7020905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>560076</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5EFA29-06CB-48EE-B82E-192F036EC71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7315200"/>
+          <a:ext cx="9145276" cy="7087589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502918</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>143629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D717B1-196F-797A-6A78-70BC2DD399DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9829800"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36111B3C-88B3-9E26-3EF0-3A2745C003BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06454097-E50B-4492-871E-2C1F885860C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,8 +564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19659600"/>
-          <a:ext cx="18285714" cy="9714286"/>
+          <a:off x="0" y="14859000"/>
+          <a:ext cx="9088118" cy="5401429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,166 +587,210 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>636287</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>219839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F789F505-FB72-429D-BB5E-AB3381ACF9C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="9221487" cy="5477639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>613598</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DDD6E7-1D43-43A6-AF2C-F5174593823D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6172200"/>
+          <a:ext cx="5896798" cy="2753109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309308</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>201425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A82658A-77F9-117C-1F4D-BC9A545D4406}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251726C6-484C-7812-6DEB-5915777B54AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10058400"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213785</xdr:colOff>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16A179C-EB95-49D6-ACC2-7BD097BDDDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9601200"/>
+          <a:ext cx="9554908" cy="10031225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489756</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>38282</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753BE20-5BDB-6099-F795-FF398C09EFC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="20345400"/>
-          <a:ext cx="4907705" cy="2095682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
+      <xdr:rowOff>200404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF310FD-F54F-4A6F-901B-20C804479CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="5772956" cy="2715004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318835</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D092D1-5FC7-8150-C368-2F17F0601D57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="23088600"/>
-          <a:ext cx="18285714" cy="10285714"/>
+      <xdr:rowOff>220478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99B2661-76BE-4615-A0B7-035F7BF717BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23317200"/>
+          <a:ext cx="9564435" cy="10050278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,15 +814,15 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A96D91-E3DF-D334-2C34-5DCF984FE02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144BD54C-3354-499B-68D5-A87D2E65978C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,34 +839,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518670</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>183035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C2A4D2-B65C-D902-F479-6EA341FCBF47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05109A16-40E0-F916-BC11-E071A25DB626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -832,8 +882,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10058400"/>
-          <a:ext cx="18285714" cy="9714286"/>
+          <a:off x="0" y="10972800"/>
+          <a:ext cx="5883150" cy="1783235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,6 +901,642 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A5DDD-18C3-CB68-E649-C93572FD9D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFE273B-EBE6-8406-B249-7D837E87D3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA5A144-665A-EF00-CD4C-EEF21647C88C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19888200"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0116CF64-9FE0-95ED-FD60-0E302D4FB882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29946600"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDFC2CE-B23F-0B40-616A-4658CE84B9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53810</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>205936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2A9AFE-B311-4144-3E7D-EB24328D4F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10744200"/>
+          <a:ext cx="5418290" cy="2263336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B653DDA-8A6C-667B-DA04-335E24D13A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13258800"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>625301</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>129710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47A6067-FC7F-2C74-9092-28B0339C1768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24231600"/>
+          <a:ext cx="5319221" cy="1958510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166D9119-E40F-84F0-2F6D-FB2BCC77F90F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26517600"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF97E36-0D1B-F4C8-D290-0FF0DB4543D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343395</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6728225B-65D6-4B9C-BE81-4D0F3A78A68E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10515600"/>
+          <a:ext cx="5707875" cy="2202371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B97FBE2-D948-F6CF-1C4C-946E64354A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D717B1-196F-797A-6A78-70BC2DD399DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9829800"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36111B3C-88B3-9E26-3EF0-3A2745C003BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19659600"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -862,10 +1548,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7891012C-6D33-9FD9-BDFB-26616BE20005}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A82658A-77F9-117C-1F4D-BC9A545D4406}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +1567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228600"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="18285714" cy="9714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -895,65 +1581,65 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511049</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>99267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE7C016-AFB3-0F17-4EFA-E61D055FF892}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10058400"/>
-          <a:ext cx="5875529" cy="2385267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251726C6-484C-7812-6DEB-5915777B54AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213785</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D30D50-342D-6EAC-A59E-3FF0FBB2A272}"/>
+      <xdr:rowOff>38282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753BE20-5BDB-6099-F795-FF398C09EFC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,96 +1655,145 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13030200"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+          <a:off x="0" y="20345400"/>
+          <a:ext cx="4907705" cy="2095682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5332E1A8-690C-B4DF-1BF8-3FE3D6DB8EF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="23317200"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D092D1-5FC7-8150-C368-2F17F0601D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23088600"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9D4819-6302-E7B2-C41C-C4E1C8FBEAE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="33604200"/>
-          <a:ext cx="18285714" cy="10285714"/>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A96D91-E3DF-D334-2C34-5DCF984FE02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C2A4D2-B65C-D902-F479-6EA341FCBF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="18285714" cy="9714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,6 +2470,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7891012C-6D33-9FD9-BDFB-26616BE20005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511049</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE7C016-AFB3-0F17-4EFA-E61D055FF892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10058400"/>
+          <a:ext cx="5875529" cy="2385267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D30D50-342D-6EAC-A59E-3FF0FBB2A272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13030200"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5332E1A8-690C-B4DF-1BF8-3FE3D6DB8EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23317200"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180594</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9D4819-6302-E7B2-C41C-C4E1C8FBEAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33604200"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2557,17 +3517,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>159064</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144BD54C-3354-499B-68D5-A87D2E65978C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4B0B8A-2E52-46C5-B6FE-31999004B0C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,34 +3544,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518670</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>183035</xdr:rowOff>
+          <a:ext cx="6102664" cy="3702240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19882</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05109A16-40E0-F916-BC11-E071A25DB626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2DA07D-CD86-471A-9F64-C91B008F713A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,8 +3587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10972800"/>
-          <a:ext cx="5883150" cy="1783235"/>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="5963482" cy="1381318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2650,17 +3610,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541024</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A5DDD-18C3-CB68-E649-C93572FD9D80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A74F749-106B-4554-A3EB-45F878056466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,34 +3637,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+          <a:ext cx="9126224" cy="7573432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>521971</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>181989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFE273B-EBE6-8406-B249-7D837E87D3B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD9138F-840C-45A3-92B8-ADA7213D137A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,35 +3680,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10058400"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
+          <a:off x="0" y="7772400"/>
+          <a:ext cx="9107171" cy="7268589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>483866</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>77008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA5A144-665A-EF00-CD4C-EEF21647C88C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC2B985-ABF1-45E7-A622-85DC474FC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,52 +3724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19888200"/>
-          <a:ext cx="18285714" cy="9714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>113086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0116CF64-9FE0-95ED-FD60-0E302D4FB882}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="29946600"/>
-          <a:ext cx="18285714" cy="9714286"/>
+          <a:off x="0" y="15316200"/>
+          <a:ext cx="9069066" cy="5792008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2831,17 +3747,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607708</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDFC2CE-B23F-0B40-616A-4658CE84B9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A8C42F-D4B5-4376-A627-61058B57C7D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,35 +3773,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53810</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>205936</xdr:rowOff>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="9192908" cy="5801535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86567</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2A9AFE-B311-4144-3E7D-EB24328D4F12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CE247F-521A-4A38-AB84-E53D169C3551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,123 +3817,123 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10744200"/>
-          <a:ext cx="5418290" cy="2263336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
+          <a:off x="0" y="6400800"/>
+          <a:ext cx="6030167" cy="2553056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>375993</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>220478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C64F3D-211A-4858-8C39-2E047EF5E9D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9601200"/>
+          <a:ext cx="9621593" cy="10050278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>343777</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D12952-4536-45B6-92B8-57EDB67DD6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20345400"/>
+          <a:ext cx="6287377" cy="2743583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B653DDA-8A6C-667B-DA04-335E24D13A13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13258800"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>625301</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>129710</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47A6067-FC7F-2C74-9092-28B0339C1768}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="24231600"/>
-          <a:ext cx="5319221" cy="1958510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180594</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>227314</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318835</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>220478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166D9119-E40F-84F0-2F6D-FB2BCC77F90F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBFC589-2BCB-44D0-BCE4-61B21E8A40E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3033,8 +3949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26517600"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:off x="0" y="23545800"/>
+          <a:ext cx="9564435" cy="10050278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3311,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
@@ -3322,6 +4238,160 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E1B8E6-6436-4F66-8B1D-56CE3FDE3D7A}">
+  <dimension ref="A26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10DA6FF-EF07-4BE1-8DA4-D2836423BA65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FA0A37-A64C-4D52-A57E-06F70A43DC17}">
+  <dimension ref="A1:A102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDAD2DB-E743-4EAE-9FF4-FD829AFB8372}">
+  <dimension ref="A48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EC4145-ABCF-465C-A01A-204F46C8A034}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A139" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2752C7-4BB9-44DD-9557-8A80C79E0704}">
+  <dimension ref="A1:A116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A0D5C2-3C7C-4E74-A9B8-00F44A5D996D}">
   <dimension ref="A46"/>
   <sheetViews>
@@ -3341,7 +4411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A5B8C3-A365-46D9-840C-8C47E7FF17A0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3355,11 +4425,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADAB5D2-3EC1-4278-92A4-88AF577FE068}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -3390,11 +4460,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF79FB82-DB28-42D5-9488-0D4BE3ECC427}">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -3410,11 +4480,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2031C44E-1B8F-4121-AF88-C588CADE58E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF484B-28BB-4A5C-B92F-0BED56A9B87F}">
   <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -3442,21 +4527,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2031C44E-1B8F-4121-AF88-C588CADE58E9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3530,30 +4600,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDAD2DB-E743-4EAE-9FF4-FD829AFB8372}">
-  <dimension ref="A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B9FF63-A3CE-4746-8CA1-FAB2C2CE96B9}">
+  <dimension ref="A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EC4145-ABCF-465C-A01A-204F46C8A034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA9F9A-FBB1-4B19-816D-C01ADD597FEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
@@ -3564,8 +4639,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2752C7-4BB9-44DD-9557-8A80C79E0704}">
-  <dimension ref="A1:A116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B440A9-8190-400D-BFC8-489943C52D95}">
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3576,23 +4651,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>6</v>
       </c>
     </row>
